--- a/Виды существ.xlsx
+++ b/Виды существ.xlsx
@@ -25,19 +25,19 @@
     <t>Woodman</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Entity\Relief</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Thicket</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -400,30 +400,30 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
